--- a/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
+++ b/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. OpensourcePS팀\08. Demo Service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. OpensourcePS팀\08. Demo Service\T info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="productpage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>Request Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,35 +197,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailsImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailsImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>prodCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detailsImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailsImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode</t>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ratings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,83 +313,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ratings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,12 +892,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,12 +904,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,46 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1281,7 +1273,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -1299,7 +1291,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="55"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="48"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1307,13 +1299,13 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="55"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>69</v>
+      <c r="E5" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>24</v>
@@ -1323,10 +1315,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="55"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="32" t="s">
         <v>25</v>
       </c>
@@ -1335,10 +1327,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="55"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -1347,10 +1339,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="56"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="60"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="32" t="s">
         <v>27</v>
       </c>
@@ -1359,9 +1351,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="57"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="49"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="16"/>
       <c r="F9" s="29" t="s">
         <v>37</v>
@@ -1371,7 +1363,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -1389,7 +1381,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="48"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -1397,9 +1389,9 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2"/>
@@ -1411,7 +1403,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="45"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
       <c r="E13" s="2"/>
@@ -1423,23 +1415,23 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
       <c r="E14" s="2"/>
       <c r="F14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
-      <c r="E15" s="42" t="s">
-        <v>56</v>
+      <c r="E15" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>30</v>
@@ -1449,10 +1441,10 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="32" t="s">
         <v>21</v>
       </c>
@@ -1461,10 +1453,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="43"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="34" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1465,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="16"/>
@@ -1485,7 +1477,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -1503,19 +1495,19 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="45"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="2"/>
@@ -1527,7 +1519,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="45"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="2"/>
@@ -1539,9 +1531,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="45"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="2"/>
       <c r="F23" s="20" t="s">
         <v>33</v>
@@ -1551,7 +1543,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="48"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
@@ -1559,7 +1551,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="46"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="49"/>
       <c r="D25" s="16" t="s">
         <v>8</v>
@@ -1574,6 +1566,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
@@ -1582,9 +1577,6 @@
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="D12:D18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1632,7 +1624,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -1650,7 +1642,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="45"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="48"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1658,41 +1650,41 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1746,14 +1738,14 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
@@ -1764,162 +1756,174 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="45"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="58" t="s">
-        <v>56</v>
+      <c r="E6" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="37" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="54"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="47" t="s">
+    <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="55"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="2"/>
       <c r="F11" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
       <c r="E12" s="2"/>
       <c r="F12" s="20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="45"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="48"/>
-      <c r="D13" s="51"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="2"/>
       <c r="F13" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="54"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="46"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="16" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="54"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="55"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1966,11 +1970,11 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -1984,7 +1988,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="45"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="48"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1992,103 +1996,115 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="41" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="54"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="55"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="54"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="54"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="55"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
+++ b/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. OpensourcePS팀\08. Demo Service\T info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. VSCode Workspace\github\demo_project_doc\T info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="productpage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>Request Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,10 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 고도화 시 리스트의 길이 및 페이징 처리 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,6 +908,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,15 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,18 +957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1251,8 +1255,8 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1272,11 +1276,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1290,21 +1294,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="44"/>
-      <c r="C4" s="48"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="51"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="40" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="51"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="54" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -1314,11 +1318,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="51"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="32" t="s">
         <v>25</v>
       </c>
@@ -1326,11 +1330,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="51"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="51"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
@@ -1338,11 +1342,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="52"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="52"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="32" t="s">
         <v>27</v>
       </c>
@@ -1350,10 +1354,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="42"/>
+    <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="53"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="16"/>
       <c r="F9" s="29" t="s">
         <v>37</v>
@@ -1362,11 +1366,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1380,18 +1384,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="54"/>
-      <c r="C11" s="48"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="54"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="41" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="48" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2"/>
@@ -1402,10 +1406,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="54"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>25</v>
@@ -1414,10 +1418,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="54"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="2"/>
       <c r="F14" s="20" t="s">
         <v>43</v>
@@ -1426,11 +1430,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="54"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -1439,12 +1443,15 @@
       <c r="G15" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="54"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="51"/>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="32" t="s">
         <v>21</v>
       </c>
@@ -1453,10 +1460,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="54"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="34" t="s">
         <v>22</v>
       </c>
@@ -1465,9 +1472,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="55"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="16"/>
       <c r="F18" s="4" t="s">
         <v>37</v>
@@ -1477,13 +1484,13 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="17"/>
@@ -1495,9 +1502,9 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="54"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23" t="s">
         <v>47</v>
@@ -1507,9 +1514,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="54"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="2"/>
       <c r="F21" s="20" t="s">
         <v>31</v>
@@ -1519,9 +1526,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="54"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="2"/>
       <c r="F22" s="20" t="s">
         <v>32</v>
@@ -1531,9 +1538,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="54"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="2"/>
       <c r="F23" s="20" t="s">
         <v>33</v>
@@ -1543,16 +1550,16 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="54"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="16" t="s">
         <v>8</v>
       </c>
@@ -1566,17 +1573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D12:D18"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="C19:C25"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D12:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1624,10 +1631,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1642,17 +1649,17 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="54"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="48" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
@@ -1664,9 +1671,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="54"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
         <v>44</v>
@@ -1676,9 +1683,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="55"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>48</v>
@@ -1738,10 +1745,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1756,17 +1763,17 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="54"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="48" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
@@ -1778,10 +1785,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="54"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="50" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -1792,10 +1799,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="54"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="32" t="s">
         <v>57</v>
       </c>
@@ -1804,10 +1811,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="54"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="34" t="s">
         <v>54</v>
       </c>
@@ -1816,9 +1823,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="55"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>37</v>
@@ -1828,13 +1835,13 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="17"/>
@@ -1846,9 +1853,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="54"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="2"/>
       <c r="F11" s="20" t="s">
         <v>28</v>
@@ -1858,9 +1865,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="54"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="2"/>
       <c r="F12" s="20" t="s">
         <v>31</v>
@@ -1870,9 +1877,9 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="54"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="2"/>
       <c r="F13" s="20" t="s">
         <v>58</v>
@@ -1882,9 +1889,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="54"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="2"/>
       <c r="F14" s="20" t="s">
         <v>54</v>
@@ -1894,16 +1901,16 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="54"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="55"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
@@ -1970,10 +1977,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1988,17 +1995,17 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="54"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="48" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
@@ -2010,9 +2017,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="54"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
         <v>69</v>
@@ -2022,9 +2029,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="55"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>37</v>
@@ -2034,13 +2041,13 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="22"/>
@@ -2052,9 +2059,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="54"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>31</v>
@@ -2064,9 +2071,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="54"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>63</v>
@@ -2076,16 +2083,16 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="54"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="55"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="16" t="s">
         <v>65</v>
       </c>

--- a/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
+++ b/T info/[T Info] 서비스 INPUT, OUTPUT 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>Request Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/productpage/main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/productpage/details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/productpage/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,27 +157,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>detailsImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailsImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resultCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodCode</t>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ratings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,31 +277,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>productList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detailsImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailsImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode</t>
+    <t>prodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,95 +297,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ratings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 고도화 시 리스트의 길이 및 페이징 처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/detailsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviewsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/productpageInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -781,13 +777,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +913,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,15 +940,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,14 +964,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,7 +1253,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1267,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>4</v>
@@ -1277,11 +1288,11 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>13</v>
+      <c r="C3" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
@@ -1295,295 +1306,287 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="51"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>66</v>
+      <c r="E5" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="51"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="52"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="53"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="16"/>
       <c r="F9" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>14</v>
+      <c r="C10" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="48" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="2"/>
       <c r="F14" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="54" t="s">
-        <v>55</v>
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="42"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="16"/>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="2"/>
       <c r="F21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2"/>
       <c r="F22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="44"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="42"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="D12:D18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>4</v>
@@ -1631,67 +1634,67 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>38</v>
+      <c r="C3" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48" t="s">
-        <v>41</v>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>4</v>
@@ -1745,181 +1748,181 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>51</v>
+      <c r="B3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48" t="s">
-        <v>41</v>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="54" t="s">
-        <v>55</v>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="44"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="32" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>39</v>
+      <c r="B10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="2"/>
       <c r="F11" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="2"/>
       <c r="F12" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="2"/>
       <c r="F13" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="2"/>
       <c r="F14" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="42"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>4</v>
@@ -1977,131 +1980,131 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>60</v>
+      <c r="C3" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="41"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>39</v>
+      <c r="B8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="42"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
